--- a/tests/__snapshots__/complex_row.xlsx
+++ b/tests/__snapshots__/complex_row.xlsx
@@ -453,14 +453,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -477,9 +476,10 @@
       <c r="H4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/__snapshots__/complex_row.xlsx
+++ b/tests/__snapshots__/complex_row.xlsx
@@ -428,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +443,12 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,17 +457,21 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="G3" s="4" t="s">
+    <row r="3" spans="1:12">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -474,13 +482,17 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
